--- a/공용폴더/픽스어빌리티스토리보드_연간.xlsx
+++ b/공용폴더/픽스어빌리티스토리보드_연간.xlsx
@@ -26,12 +26,12 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
+    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
+    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
     <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
-    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
-    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>작업이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1차마케팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트베드(서버안착)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +153,14 @@
   </si>
   <si>
     <t>2021년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장반응조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구인공고 및 사무실계약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,9 +919,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,11 +997,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1008,88 +1072,20 @@
     <xf numFmtId="177" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1592,7 +1588,7 @@
       <pane xSplit="8" ySplit="9" topLeftCell="W10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AO7" sqref="AO7:AU7"/>
+      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" outlineLevelRow="1"/>
@@ -1671,19 +1667,19 @@
       <c r="BA1" s="2"/>
     </row>
     <row r="2" spans="1:75" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="55">
         <v>44032</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="72" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
@@ -1718,20 +1714,20 @@
       <c r="BA2" s="4"/>
     </row>
     <row r="3" spans="1:75" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="70" t="e">
+      <c r="C3" s="57" t="e">
         <f>ROUND(SUM(G10,#REF!,#REF!,#REF!,#REF!)/5,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="75">
+      <c r="D3" s="58"/>
+      <c r="E3" s="62">
         <v>44064</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -1766,18 +1762,18 @@
       <c r="BA3" s="4"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="70" t="e">
+      <c r="C4" s="57" t="e">
         <f>ROUND(SUM(H10,#REF!,#REF!,#REF!,#REF!)/5,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -1813,695 +1809,695 @@
     </row>
     <row r="5" spans="1:75" ht="27" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:75" ht="30.75" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
-      <c r="BL6" s="59"/>
-      <c r="BM6" s="59"/>
-      <c r="BN6" s="59"/>
-      <c r="BO6" s="59"/>
-      <c r="BP6" s="59"/>
-      <c r="BQ6" s="59"/>
-      <c r="BR6" s="59"/>
-      <c r="BS6" s="59"/>
-      <c r="BT6" s="59"/>
-      <c r="BU6" s="59"/>
-      <c r="BV6" s="59"/>
-      <c r="BW6" s="59"/>
+      <c r="AI6" s="79"/>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="79"/>
+      <c r="AM6" s="79"/>
+      <c r="AN6" s="79"/>
+      <c r="AO6" s="79"/>
+      <c r="AP6" s="79"/>
+      <c r="AQ6" s="79"/>
+      <c r="AR6" s="79"/>
+      <c r="AS6" s="79"/>
+      <c r="AT6" s="79"/>
+      <c r="AU6" s="79"/>
+      <c r="AV6" s="79"/>
+      <c r="AW6" s="79"/>
+      <c r="AX6" s="79"/>
+      <c r="AY6" s="79"/>
+      <c r="AZ6" s="79"/>
+      <c r="BA6" s="79"/>
+      <c r="BB6" s="79"/>
+      <c r="BC6" s="79"/>
+      <c r="BD6" s="79"/>
+      <c r="BE6" s="79"/>
+      <c r="BF6" s="79"/>
+      <c r="BG6" s="79"/>
+      <c r="BH6" s="79"/>
+      <c r="BI6" s="79"/>
+      <c r="BJ6" s="79"/>
+      <c r="BK6" s="79"/>
+      <c r="BL6" s="79"/>
+      <c r="BM6" s="79"/>
+      <c r="BN6" s="79"/>
+      <c r="BO6" s="79"/>
+      <c r="BP6" s="79"/>
+      <c r="BQ6" s="79"/>
+      <c r="BR6" s="79"/>
+      <c r="BS6" s="79"/>
+      <c r="BT6" s="79"/>
+      <c r="BU6" s="79"/>
+      <c r="BV6" s="79"/>
+      <c r="BW6" s="79"/>
     </row>
     <row r="7" spans="1:75" ht="36" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="57">
+      <c r="A7" s="69"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72">
         <f>I9</f>
         <v>44146</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="56">
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74">
         <f t="shared" ref="M7:AV7" si="0">M9</f>
         <v>44151</v>
       </c>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="56">
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="74">
         <f t="shared" si="0"/>
         <v>44158</v>
       </c>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="56">
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74">
         <f t="shared" si="0"/>
         <v>44165</v>
       </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="56">
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="74">
         <f t="shared" si="0"/>
         <v>44200</v>
       </c>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="56">
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="74">
         <f t="shared" si="0"/>
         <v>44249</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="56">
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="74">
         <f t="shared" si="0"/>
         <v>44291</v>
       </c>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="52"/>
-      <c r="BC7" s="56">
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="72"/>
+      <c r="BA7" s="72"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="74">
         <f t="shared" ref="BC7" si="1">BC9</f>
         <v>44354</v>
       </c>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="52"/>
-      <c r="BJ7" s="56">
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="72"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="74">
         <f t="shared" ref="BJ7" si="2">BJ9</f>
         <v>44403</v>
       </c>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="52"/>
-      <c r="BQ7" s="56">
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="72"/>
+      <c r="BM7" s="72"/>
+      <c r="BN7" s="72"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="51"/>
+      <c r="BQ7" s="74">
         <f t="shared" ref="BQ7" si="3">BQ9</f>
         <v>44494</v>
       </c>
-      <c r="BR7" s="57"/>
-      <c r="BS7" s="57"/>
-      <c r="BT7" s="57"/>
-      <c r="BU7" s="57"/>
-      <c r="BV7" s="57"/>
-      <c r="BW7" s="52"/>
+      <c r="BR7" s="72"/>
+      <c r="BS7" s="72"/>
+      <c r="BT7" s="72"/>
+      <c r="BU7" s="72"/>
+      <c r="BV7" s="72"/>
+      <c r="BW7" s="51"/>
     </row>
     <row r="8" spans="1:75" ht="20.25" hidden="1" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="15"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="54">
+      <c r="H8" s="37"/>
+      <c r="I8" s="53">
         <f t="shared" ref="I8:BT8" si="4">IF(WEEKDAY(I9,2)&lt;6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="54">
+      <c r="J8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="54">
+      <c r="M8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y8" s="54">
+      <c r="T8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="54">
+      <c r="Z8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AC8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AF8" s="54">
+      <c r="AA8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="54">
+      <c r="AG8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AI8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AK8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AL8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AM8" s="54">
+      <c r="AH8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AK8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AM8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="54">
+      <c r="AN8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AP8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AR8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AS8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AT8" s="54">
+      <c r="AO8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AR8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AS8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AT8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AU8" s="54">
+      <c r="AU8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AV8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AW8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AX8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AY8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BA8" s="54">
+      <c r="AV8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AW8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AX8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BA8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BB8" s="55">
+      <c r="BB8" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BD8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BE8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BF8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BG8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BH8" s="54">
+      <c r="BC8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BD8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BE8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BF8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BG8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BH8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BI8" s="55">
+      <c r="BI8" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BJ8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BK8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BM8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BN8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BO8" s="54">
+      <c r="BJ8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BK8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BL8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BM8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BO8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BP8" s="55">
+      <c r="BP8" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BQ8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BR8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BS8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BT8" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BU8" s="54">
+      <c r="BQ8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BR8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BS8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BT8" s="53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BU8" s="53">
         <f t="shared" ref="BU8:BW8" si="5">IF(WEEKDAY(BU9,2)&lt;6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="BV8" s="54">
+      <c r="BV8" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BW8" s="55">
+      <c r="BW8" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:75" ht="6" customHeight="1" thickBot="1">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:75" ht="0.75" customHeight="1" thickBot="1">
+      <c r="A9" s="29"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="15"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="53">
+      <c r="H9" s="37"/>
+      <c r="I9" s="52">
         <v>44146</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="52">
         <v>44147</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="52">
         <v>44148</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="52">
         <v>44149</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="52">
         <v>44151</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="52">
         <v>44152</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="52">
         <v>44153</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="52">
         <v>44154</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="52">
         <v>44155</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="52">
         <v>44156</v>
       </c>
-      <c r="S9" s="53">
+      <c r="S9" s="52">
         <v>44157</v>
       </c>
-      <c r="T9" s="53">
+      <c r="T9" s="52">
         <v>44158</v>
       </c>
-      <c r="U9" s="53">
+      <c r="U9" s="52">
         <v>44159</v>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="52">
         <v>44160</v>
       </c>
-      <c r="W9" s="53">
+      <c r="W9" s="52">
         <v>44161</v>
       </c>
-      <c r="X9" s="53">
+      <c r="X9" s="52">
         <v>44162</v>
       </c>
-      <c r="Y9" s="53">
+      <c r="Y9" s="52">
         <v>44163</v>
       </c>
-      <c r="Z9" s="53">
+      <c r="Z9" s="52">
         <v>44164</v>
       </c>
-      <c r="AA9" s="53">
+      <c r="AA9" s="52">
         <v>44165</v>
       </c>
-      <c r="AB9" s="53">
+      <c r="AB9" s="52">
         <v>44166</v>
       </c>
-      <c r="AC9" s="53">
+      <c r="AC9" s="52">
         <v>44167</v>
       </c>
-      <c r="AD9" s="53">
+      <c r="AD9" s="52">
         <v>44168</v>
       </c>
-      <c r="AE9" s="53">
+      <c r="AE9" s="52">
         <v>44169</v>
       </c>
-      <c r="AF9" s="53">
+      <c r="AF9" s="52">
         <v>44170</v>
       </c>
-      <c r="AG9" s="53">
+      <c r="AG9" s="52">
         <v>44171</v>
       </c>
-      <c r="AH9" s="53">
+      <c r="AH9" s="52">
         <v>44200</v>
       </c>
-      <c r="AI9" s="53">
+      <c r="AI9" s="52">
         <v>44201</v>
       </c>
-      <c r="AJ9" s="53">
+      <c r="AJ9" s="52">
         <v>44202</v>
       </c>
-      <c r="AK9" s="53">
+      <c r="AK9" s="52">
         <v>44203</v>
       </c>
-      <c r="AL9" s="53">
+      <c r="AL9" s="52">
         <v>44204</v>
       </c>
-      <c r="AM9" s="53">
+      <c r="AM9" s="52">
         <v>44205</v>
       </c>
-      <c r="AN9" s="53">
+      <c r="AN9" s="52">
         <v>44206</v>
       </c>
-      <c r="AO9" s="53">
+      <c r="AO9" s="52">
         <v>44249</v>
       </c>
-      <c r="AP9" s="53">
+      <c r="AP9" s="52">
         <v>44250</v>
       </c>
-      <c r="AQ9" s="53">
+      <c r="AQ9" s="52">
         <v>44251</v>
       </c>
-      <c r="AR9" s="53">
+      <c r="AR9" s="52">
         <v>44252</v>
       </c>
-      <c r="AS9" s="53">
+      <c r="AS9" s="52">
         <v>44253</v>
       </c>
-      <c r="AT9" s="53">
+      <c r="AT9" s="52">
         <v>44254</v>
       </c>
-      <c r="AU9" s="53">
+      <c r="AU9" s="52">
         <v>44255</v>
       </c>
-      <c r="AV9" s="53">
+      <c r="AV9" s="52">
         <v>44291</v>
       </c>
-      <c r="AW9" s="53">
+      <c r="AW9" s="52">
         <v>44292</v>
       </c>
-      <c r="AX9" s="53">
+      <c r="AX9" s="52">
         <v>44293</v>
       </c>
-      <c r="AY9" s="53">
+      <c r="AY9" s="52">
         <v>44294</v>
       </c>
-      <c r="AZ9" s="53">
+      <c r="AZ9" s="52">
         <v>44295</v>
       </c>
-      <c r="BA9" s="53">
+      <c r="BA9" s="52">
         <v>44296</v>
       </c>
-      <c r="BB9" s="53">
+      <c r="BB9" s="52">
         <v>44297</v>
       </c>
-      <c r="BC9" s="53">
+      <c r="BC9" s="52">
         <v>44354</v>
       </c>
-      <c r="BD9" s="53">
+      <c r="BD9" s="52">
         <v>44355</v>
       </c>
-      <c r="BE9" s="53">
+      <c r="BE9" s="52">
         <v>44356</v>
       </c>
-      <c r="BF9" s="53">
+      <c r="BF9" s="52">
         <v>44357</v>
       </c>
-      <c r="BG9" s="53">
+      <c r="BG9" s="52">
         <v>44358</v>
       </c>
-      <c r="BH9" s="53">
+      <c r="BH9" s="52">
         <v>44359</v>
       </c>
-      <c r="BI9" s="53">
+      <c r="BI9" s="52">
         <v>44360</v>
       </c>
-      <c r="BJ9" s="53">
+      <c r="BJ9" s="52">
         <v>44403</v>
       </c>
-      <c r="BK9" s="53">
+      <c r="BK9" s="52">
         <v>44404</v>
       </c>
-      <c r="BL9" s="53">
+      <c r="BL9" s="52">
         <v>44405</v>
       </c>
-      <c r="BM9" s="53">
+      <c r="BM9" s="52">
         <v>44406</v>
       </c>
-      <c r="BN9" s="53">
+      <c r="BN9" s="52">
         <v>44407</v>
       </c>
-      <c r="BO9" s="53">
+      <c r="BO9" s="52">
         <v>44408</v>
       </c>
-      <c r="BP9" s="53">
+      <c r="BP9" s="52">
         <v>44409</v>
       </c>
-      <c r="BQ9" s="53">
+      <c r="BQ9" s="52">
         <v>44494</v>
       </c>
-      <c r="BR9" s="53">
+      <c r="BR9" s="52">
         <v>44495</v>
       </c>
-      <c r="BS9" s="53">
+      <c r="BS9" s="52">
         <v>44496</v>
       </c>
-      <c r="BT9" s="53">
+      <c r="BT9" s="52">
         <v>44497</v>
       </c>
-      <c r="BU9" s="53">
+      <c r="BU9" s="52">
         <v>44498</v>
       </c>
-      <c r="BV9" s="53">
+      <c r="BV9" s="52">
         <v>44499</v>
       </c>
-      <c r="BW9" s="53">
+      <c r="BW9" s="52">
         <v>44500</v>
       </c>
     </row>
@@ -2527,21 +2523,21 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-      <c r="S10" s="35"/>
+      <c r="S10" s="34"/>
       <c r="T10" s="16"/>
       <c r="U10" s="17"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
-      <c r="Z10" s="35"/>
+      <c r="Z10" s="34"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
@@ -2596,40 +2592,40 @@
       <c r="A11" s="27">
         <v>1</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <f t="shared" ref="C11:C23" si="6">IFERROR(SUMIFS($I$8:$BB$8,$I$9:$BB$9,"&gt;="&amp;$D11,$I$9:$BB$9,"&lt;="&amp;$E11),"")</f>
         <v>18</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <v>44146</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <v>44169</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
       <c r="I11"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="34"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
-      <c r="S11" s="34"/>
+      <c r="S11" s="33"/>
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
-      <c r="Z11" s="34"/>
+      <c r="Z11" s="33"/>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
       <c r="AC11" s="19"/>
@@ -2684,40 +2680,40 @@
       <c r="A12" s="27">
         <v>2</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>44155</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <v>44290</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="34"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
-      <c r="S12" s="34"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="19"/>
       <c r="U12" s="20"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
-      <c r="Z12" s="34"/>
+      <c r="Z12" s="33"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
@@ -2772,40 +2768,40 @@
       <c r="A13" s="27">
         <v>3</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="48">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <v>44155</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <v>44290</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="34"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
-      <c r="S13" s="34"/>
+      <c r="S13" s="33"/>
       <c r="T13" s="19"/>
       <c r="U13" s="20"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
-      <c r="Z13" s="34"/>
+      <c r="Z13" s="33"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
       <c r="AC13" s="19"/>
@@ -2860,40 +2856,40 @@
       <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="48">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>44158</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <v>44165</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="34"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
-      <c r="S14" s="34"/>
+      <c r="S14" s="33"/>
       <c r="T14" s="19"/>
       <c r="U14" s="20"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
-      <c r="Z14" s="34"/>
+      <c r="Z14" s="33"/>
       <c r="AA14" s="19"/>
       <c r="AB14" s="19"/>
       <c r="AC14" s="19"/>
@@ -2948,40 +2944,40 @@
       <c r="A15" s="27">
         <v>5</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>44159</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="49">
         <v>44161</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="34"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
-      <c r="S15" s="34"/>
+      <c r="S15" s="33"/>
       <c r="T15" s="19"/>
       <c r="U15" s="20"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
-      <c r="Z15" s="34"/>
+      <c r="Z15" s="33"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -3036,40 +3032,40 @@
       <c r="A16" s="27">
         <v>6</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="48">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>44159</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <v>44161</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="34"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
-      <c r="S16" s="34"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="19"/>
       <c r="U16" s="20"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
-      <c r="Z16" s="34"/>
+      <c r="Z16" s="33"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
@@ -3124,40 +3120,40 @@
       <c r="A17" s="27">
         <v>7</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="48">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <v>44159</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <v>44204</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="34"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
-      <c r="S17" s="34"/>
+      <c r="S17" s="33"/>
       <c r="T17" s="19"/>
       <c r="U17" s="20"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
-      <c r="Z17" s="34"/>
+      <c r="Z17" s="33"/>
       <c r="AA17" s="19"/>
       <c r="AB17" s="19"/>
       <c r="AC17" s="19"/>
@@ -3212,40 +3208,40 @@
       <c r="A18" s="27">
         <v>8</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="49">
+      <c r="B18" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="48">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <v>43834</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="49">
         <v>44253</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="34"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
-      <c r="S18" s="34"/>
+      <c r="S18" s="33"/>
       <c r="T18" s="19"/>
       <c r="U18" s="20"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
-      <c r="Z18" s="34"/>
+      <c r="Z18" s="33"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
@@ -3300,40 +3296,40 @@
       <c r="A19" s="27">
         <v>9</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="49">
+      <c r="B19" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="48">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="49">
         <v>44291</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="49">
         <v>44321</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="34"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
-      <c r="S19" s="34"/>
+      <c r="S19" s="33"/>
       <c r="T19" s="19"/>
       <c r="U19" s="20"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
-      <c r="Z19" s="34"/>
+      <c r="Z19" s="33"/>
       <c r="AA19" s="19"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
@@ -3388,40 +3384,40 @@
       <c r="A20" s="27">
         <v>10</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="49">
+      <c r="B20" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="48">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="49">
         <v>44291</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="49">
         <v>44498</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="34"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
-      <c r="S20" s="34"/>
+      <c r="S20" s="33"/>
       <c r="T20" s="19"/>
       <c r="U20" s="20"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
-      <c r="Z20" s="34"/>
+      <c r="Z20" s="33"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
@@ -3473,288 +3469,296 @@
       <c r="BW20" s="21"/>
     </row>
     <row r="21" spans="1:75" ht="21.95" customHeight="1">
-      <c r="A21" s="39">
+      <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="49">
-        <f t="shared" si="6"/>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="80">
+        <f>IFERROR(SUMIFS($I$8:$BB$8,$I$9:$BB$9,"&gt;="&amp;$D21,$I$9:$BB$9,"&lt;="&amp;$E21),"")</f>
         <v>0</v>
       </c>
-      <c r="D21" s="50">
-        <v>44352</v>
-      </c>
-      <c r="E21" s="50">
-        <v>55153</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="33"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="33"/>
-      <c r="BJ21" s="31"/>
-      <c r="BK21" s="31"/>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="31"/>
-      <c r="BN21" s="31"/>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="33"/>
-      <c r="BQ21" s="31"/>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="31"/>
-      <c r="BT21" s="31"/>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="31"/>
-      <c r="BW21" s="33"/>
+      <c r="D21" s="81">
+        <v>44321</v>
+      </c>
+      <c r="E21" s="81">
+        <v>44347</v>
+      </c>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="30"/>
+      <c r="AU21" s="30"/>
+      <c r="AV21" s="30"/>
+      <c r="AW21" s="30"/>
+      <c r="AX21" s="30"/>
+      <c r="AY21" s="30"/>
+      <c r="AZ21" s="30"/>
+      <c r="BA21" s="30"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="30"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="30"/>
+      <c r="BF21" s="30"/>
+      <c r="BG21" s="30"/>
+      <c r="BH21" s="30"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="30"/>
+      <c r="BK21" s="30"/>
+      <c r="BL21" s="30"/>
+      <c r="BM21" s="30"/>
+      <c r="BN21" s="30"/>
+      <c r="BO21" s="30"/>
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="30"/>
+      <c r="BR21" s="30"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="30"/>
+      <c r="BU21" s="30"/>
+      <c r="BV21" s="30"/>
+      <c r="BW21" s="32"/>
     </row>
     <row r="22" spans="1:75" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="A22" s="39">
+      <c r="A22" s="38">
         <v>12</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="49">
-        <f t="shared" si="6"/>
+      <c r="B22" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="48">
+        <f>IFERROR(SUMIFS($I$8:$BB$8,$I$9:$BB$9,"&gt;="&amp;$D22,$I$9:$BB$9,"&lt;="&amp;$E22),"")</f>
         <v>0</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="49">
         <v>44352</v>
       </c>
-      <c r="E22" s="50">
-        <v>44408</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="33"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="33"/>
-      <c r="BJ22" s="31"/>
-      <c r="BK22" s="31"/>
-      <c r="BL22" s="31"/>
-      <c r="BM22" s="31"/>
-      <c r="BN22" s="31"/>
-      <c r="BO22" s="31"/>
-      <c r="BP22" s="33"/>
-      <c r="BQ22" s="31"/>
-      <c r="BR22" s="31"/>
-      <c r="BS22" s="31"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="31"/>
-      <c r="BV22" s="31"/>
-      <c r="BW22" s="33"/>
+      <c r="E22" s="49">
+        <v>55153</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="30"/>
+      <c r="AT22" s="30"/>
+      <c r="AU22" s="30"/>
+      <c r="AV22" s="30"/>
+      <c r="AW22" s="30"/>
+      <c r="AX22" s="30"/>
+      <c r="AY22" s="30"/>
+      <c r="AZ22" s="30"/>
+      <c r="BA22" s="30"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="30"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22" s="30"/>
+      <c r="BF22" s="30"/>
+      <c r="BG22" s="30"/>
+      <c r="BH22" s="30"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="30"/>
+      <c r="BK22" s="30"/>
+      <c r="BL22" s="30"/>
+      <c r="BM22" s="30"/>
+      <c r="BN22" s="30"/>
+      <c r="BO22" s="30"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="30"/>
+      <c r="BR22" s="30"/>
+      <c r="BS22" s="30"/>
+      <c r="BT22" s="30"/>
+      <c r="BU22" s="30"/>
+      <c r="BV22" s="30"/>
+      <c r="BW22" s="32"/>
     </row>
     <row r="23" spans="1:75" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="49">
-        <f t="shared" si="6"/>
+      <c r="A23" s="38">
+        <v>13</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="48">
+        <f>IFERROR(SUMIFS($I$8:$BB$8,$I$9:$BB$9,"&gt;="&amp;$D23,$I$9:$BB$9,"&lt;="&amp;$E23),"")</f>
         <v>0</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="31"/>
-      <c r="AZ23" s="31"/>
-      <c r="BA23" s="31"/>
-      <c r="BB23" s="33"/>
-      <c r="BC23" s="31"/>
-      <c r="BD23" s="31"/>
-      <c r="BE23" s="31"/>
-      <c r="BF23" s="31"/>
-      <c r="BG23" s="31"/>
-      <c r="BH23" s="31"/>
-      <c r="BI23" s="33"/>
-      <c r="BJ23" s="31"/>
-      <c r="BK23" s="31"/>
-      <c r="BL23" s="31"/>
-      <c r="BM23" s="31"/>
-      <c r="BN23" s="31"/>
-      <c r="BO23" s="31"/>
-      <c r="BP23" s="33"/>
-      <c r="BQ23" s="31"/>
-      <c r="BR23" s="31"/>
-      <c r="BS23" s="31"/>
-      <c r="BT23" s="31"/>
-      <c r="BU23" s="31"/>
-      <c r="BV23" s="31"/>
-      <c r="BW23" s="33"/>
+      <c r="D23" s="49">
+        <v>44352</v>
+      </c>
+      <c r="E23" s="49">
+        <v>44408</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="30"/>
+      <c r="AY23" s="30"/>
+      <c r="AZ23" s="30"/>
+      <c r="BA23" s="30"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="30"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="32"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="30"/>
+      <c r="BM23" s="30"/>
+      <c r="BN23" s="30"/>
+      <c r="BO23" s="30"/>
+      <c r="BP23" s="32"/>
+      <c r="BQ23" s="30"/>
+      <c r="BR23" s="30"/>
+      <c r="BS23" s="30"/>
+      <c r="BT23" s="30"/>
+      <c r="BU23" s="30"/>
+      <c r="BV23" s="30"/>
+      <c r="BW23" s="32"/>
     </row>
     <row r="24" spans="1:75" ht="21.95" customHeight="1" thickBot="1">
       <c r="A24" s="28"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="37"/>
+      <c r="S24" s="36"/>
       <c r="T24" s="22"/>
       <c r="U24" s="23"/>
       <c r="V24" s="22"/>
       <c r="W24" s="22"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
-      <c r="Z24" s="37"/>
+      <c r="Z24" s="36"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
       <c r="AC24" s="22"/>
@@ -3939,28 +3943,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
+    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
+      <rowBreaks count="3" manualBreakCount="3">
+        <brk id="49" max="16383" man="1"/>
+        <brk id="107" max="16383" man="1"/>
+        <brk id="128" max="16383" man="1"/>
+      </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId2"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId3"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
@@ -3973,25 +3974,28 @@
       </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
-      <rowBreaks count="3" manualBreakCount="3">
-        <brk id="49" max="16383" man="1"/>
-        <brk id="107" max="16383" man="1"/>
-        <brk id="128" max="16383" man="1"/>
-      </rowBreaks>
+    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId6"/>
@@ -3999,11 +4003,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="25">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="BC7:BH7"/>
+    <mergeCell ref="BJ7:BO7"/>
+    <mergeCell ref="BQ7:BV7"/>
+    <mergeCell ref="AH6:BW6"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="AV7:BA7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="I6:AG6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I7:L7"/>
@@ -4014,48 +4023,35 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="T7:Z7"/>
-    <mergeCell ref="AV7:BA7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="I6:AG6"/>
-    <mergeCell ref="BC7:BH7"/>
-    <mergeCell ref="BJ7:BO7"/>
-    <mergeCell ref="BQ7:BV7"/>
-    <mergeCell ref="AH6:BW6"/>
-    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I10:BB24">
-    <cfRule type="expression" dxfId="7" priority="33">
+  <conditionalFormatting sqref="I10:BW20 I24:BW24">
+    <cfRule type="expression" dxfId="5" priority="33">
       <formula>I$8=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="34">
+    <cfRule type="expression" dxfId="4" priority="34">
       <formula>AND(I$9&gt;=$D10,I$9&lt;=$E10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC10:BI24">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>BC$8=0</formula>
+  <conditionalFormatting sqref="I21:BW22">
+    <cfRule type="expression" dxfId="3" priority="37">
+      <formula>I$8=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(BC$9&gt;=$D10,BC$9&lt;=$E10)</formula>
+    <cfRule type="expression" dxfId="2" priority="38">
+      <formula>AND(I$9&gt;=$D22,I$9&lt;=$E22)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ10:BP24">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>BJ$8=0</formula>
+  <conditionalFormatting sqref="I23:BW23">
+    <cfRule type="expression" dxfId="1" priority="39">
+      <formula>I$8=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(BJ$9&gt;=$D10,BJ$9&lt;=$E10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ10:BW24">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>BQ$8=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(BQ$9&gt;=$D10,BQ$9&lt;=$E10)</formula>
+    <cfRule type="expression" dxfId="0" priority="40">
+      <formula>AND(I$9&gt;=#REF!,I$9&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
